--- a/biology/Médecine/Lingula_de_la_mandibule/Lingula_de_la_mandibule.xlsx
+++ b/biology/Médecine/Lingula_de_la_mandibule/Lingula_de_la_mandibule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La lingula de la mandibule ou l'épine de Spix est une crête osseuse proéminente sur le côté médian de la branche de la mandibule qui limite en avant le foramen mandibulaire.
 C'est le point d'insertion du ligament sphéno-mandibulaire.
